--- a/用例数据/深A/GDR数据/交收失败/测试结果.xlsx
+++ b/用例数据/深A/GDR数据/交收失败/测试结果.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\GDR数据\交收失败\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9384" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="account" sheetId="2" r:id="rId2"/>
     <sheet name="stklist" sheetId="3" r:id="rId3"/>
-    <sheet name="exchangerights" sheetId="4" r:id="rId4"/>
-    <sheet name="virtualRegistrationRights" sheetId="5" r:id="rId5"/>
-    <sheet name="tradinglog" sheetId="6" r:id="rId6"/>
+    <sheet name="tradinglog" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="591">
   <si>
     <t>InternalOrder当天日期ordertime</t>
   </si>
@@ -1752,18 +1755,72 @@
   <si>
     <t>000006939189</t>
   </si>
+  <si>
+    <t>236000.0000</t>
+  </si>
+  <si>
+    <t>2.1600</t>
+  </si>
+  <si>
+    <t>104000</t>
+  </si>
+  <si>
+    <t>0.09076923</t>
+  </si>
+  <si>
+    <t>245440.0000</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>30001911</t>
+  </si>
+  <si>
+    <t>20221213230132</t>
+  </si>
+  <si>
+    <t>20221213000000</t>
+  </si>
+  <si>
+    <t>-203541490.620</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>000007095413</t>
+  </si>
+  <si>
+    <t>20221214000000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>30001912</t>
+  </si>
+  <si>
+    <t>19837343.560</t>
+  </si>
+  <si>
+    <t>000007095414</t>
+  </si>
+  <si>
+    <t>30001913</t>
+  </si>
+  <si>
+    <t>-1823314.720</t>
+  </si>
+  <si>
+    <t>000007095415</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1786,151 +1843,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1943,194 +1863,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2138,255 +1872,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2394,62 +1886,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2736,65 +2187,65 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET53"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD53"/>
+      <selection activeCell="A50" sqref="A50:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" style="1"/>
-    <col min="11" max="11" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.88888888888889" style="1"/>
-    <col min="24" max="24" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88888888888889" style="1"/>
-    <col min="26" max="26" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.88888888888889" style="1"/>
-    <col min="29" max="29" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="30" max="34" width="8.88888888888889" style="1"/>
-    <col min="35" max="35" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="36" max="41" width="8.88888888888889" style="1"/>
-    <col min="42" max="42" width="11.3333333333333" style="1" customWidth="1"/>
-    <col min="43" max="46" width="8.88888888888889" style="1"/>
-    <col min="47" max="47" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="48" max="61" width="8.88888888888889" style="1"/>
-    <col min="62" max="62" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="63" max="82" width="8.88888888888889" style="1"/>
-    <col min="83" max="83" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="84" max="106" width="8.88888888888889" style="1"/>
+    <col min="14" max="14" width="12.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="12.21875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="13.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.21875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="1"/>
+    <col min="29" max="29" width="13.77734375" style="1" customWidth="1"/>
+    <col min="30" max="34" width="8.88671875" style="1"/>
+    <col min="35" max="35" width="13.88671875" style="1" customWidth="1"/>
+    <col min="36" max="41" width="8.88671875" style="1"/>
+    <col min="42" max="42" width="11.33203125" style="1" customWidth="1"/>
+    <col min="43" max="46" width="8.88671875" style="1"/>
+    <col min="47" max="47" width="9.44140625" style="1" customWidth="1"/>
+    <col min="48" max="61" width="8.88671875" style="1"/>
+    <col min="62" max="62" width="27.77734375" style="1" customWidth="1"/>
+    <col min="63" max="82" width="8.88671875" style="1"/>
+    <col min="83" max="83" width="16.5546875" style="1" customWidth="1"/>
+    <col min="84" max="106" width="8.88671875" style="1"/>
     <col min="107" max="107" width="19" style="1" customWidth="1"/>
-    <col min="108" max="134" width="8.88888888888889" style="1"/>
-    <col min="135" max="135" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="136" max="16384" width="8.88888888888889" style="1"/>
+    <col min="108" max="134" width="8.88671875" style="1"/>
+    <col min="135" max="135" width="17.33203125" style="1" customWidth="1"/>
+    <col min="136" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:2">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:77">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3024,7 +2475,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:73">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -3067,7 +2518,6 @@
       <c r="N3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
         <v>88</v>
       </c>
@@ -3080,18 +2530,15 @@
       <c r="S3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
         <v>94</v>
       </c>
@@ -3134,8 +2581,6 @@
       <c r="AM3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
       <c r="AP3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3148,7 +2593,6 @@
       <c r="AS3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
         <v>95</v>
       </c>
@@ -3167,35 +2611,21 @@
       <c r="AZ3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
       <c r="BD3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BE3" s="1"/>
       <c r="BF3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
       <c r="BM3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
       <c r="BP3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
       <c r="BT3" s="1" t="s">
         <v>95</v>
       </c>
@@ -3203,7 +2633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:73">
+    <row r="4" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -3246,7 +2676,6 @@
       <c r="N4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
         <v>114</v>
       </c>
@@ -3259,18 +2688,15 @@
       <c r="S4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
         <v>94</v>
       </c>
@@ -3313,8 +2739,6 @@
       <c r="AM4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
       <c r="AP4" s="1" t="s">
         <v>102</v>
       </c>
@@ -3327,7 +2751,6 @@
       <c r="AS4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3346,35 +2769,21 @@
       <c r="AZ4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
       <c r="BD4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BE4" s="1"/>
       <c r="BF4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
       <c r="BP4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
       <c r="BT4" s="1" t="s">
         <v>95</v>
       </c>
@@ -3382,7 +2791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:73">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -3425,7 +2834,6 @@
       <c r="N5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>114</v>
       </c>
@@ -3438,18 +2846,15 @@
       <c r="S5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
         <v>94</v>
       </c>
@@ -3492,8 +2897,6 @@
       <c r="AM5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
       <c r="AP5" s="1" t="s">
         <v>102</v>
       </c>
@@ -3506,7 +2909,6 @@
       <c r="AS5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AT5" s="1"/>
       <c r="AU5" s="1" t="s">
         <v>95</v>
       </c>
@@ -3525,35 +2927,21 @@
       <c r="AZ5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
       <c r="BD5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BE5" s="1"/>
       <c r="BF5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
       <c r="BP5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
       <c r="BT5" s="1" t="s">
         <v>95</v>
       </c>
@@ -3561,57 +2949,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:47">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
       <c r="AU7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:150">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +3404,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:150">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -4097,7 +3441,6 @@
       <c r="L9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="2" t="s">
         <v>272</v>
       </c>
@@ -4182,9 +3525,6 @@
       <c r="AO9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
       <c r="AS9" s="1" t="s">
         <v>107</v>
       </c>
@@ -4194,13 +3534,9 @@
       <c r="AU9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV9" s="1"/>
       <c r="AW9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
       <c r="BA9" s="1" t="s">
         <v>78</v>
       </c>
@@ -4273,7 +3609,6 @@
       <c r="BX9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY9" s="1"/>
       <c r="BZ9" s="1" t="s">
         <v>97</v>
       </c>
@@ -4406,7 +3741,6 @@
       <c r="DQ9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DR9" s="1"/>
       <c r="DS9" s="1" t="s">
         <v>95</v>
       </c>
@@ -4486,7 +3820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:150">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -4523,7 +3857,6 @@
       <c r="L10" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M10" s="1"/>
       <c r="N10" s="2" t="s">
         <v>287</v>
       </c>
@@ -4608,9 +3941,6 @@
       <c r="AO10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
         <v>107</v>
       </c>
@@ -4620,13 +3950,9 @@
       <c r="AU10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV10" s="1"/>
       <c r="AW10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
         <v>78</v>
       </c>
@@ -4699,7 +4025,6 @@
       <c r="BX10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY10" s="1"/>
       <c r="BZ10" s="1" t="s">
         <v>97</v>
       </c>
@@ -4832,7 +4157,6 @@
       <c r="DQ10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DR10" s="1"/>
       <c r="DS10" s="1" t="s">
         <v>95</v>
       </c>
@@ -4912,7 +4236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:150">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -4949,7 +4273,6 @@
       <c r="L11" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M11" s="1"/>
       <c r="N11" s="2" t="s">
         <v>287</v>
       </c>
@@ -5034,9 +4357,6 @@
       <c r="AO11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
       <c r="AS11" s="1" t="s">
         <v>107</v>
       </c>
@@ -5046,12 +4366,9 @@
       <c r="AU11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV11" s="1"/>
       <c r="AW11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
       <c r="AZ11" s="1" t="s">
         <v>297</v>
       </c>
@@ -5127,7 +4444,6 @@
       <c r="BX11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY11" s="1"/>
       <c r="BZ11" s="1" t="s">
         <v>97</v>
       </c>
@@ -5342,7 +4658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:150">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -5379,7 +4695,6 @@
       <c r="L12" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M12" s="1"/>
       <c r="N12" s="2" t="s">
         <v>287</v>
       </c>
@@ -5464,9 +4779,6 @@
       <c r="AO12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
       <c r="AS12" s="1" t="s">
         <v>107</v>
       </c>
@@ -5476,13 +4788,9 @@
       <c r="AU12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV12" s="1"/>
       <c r="AW12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
       <c r="BA12" s="1" t="s">
         <v>78</v>
       </c>
@@ -5555,7 +4863,6 @@
       <c r="BX12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY12" s="1"/>
       <c r="BZ12" s="1" t="s">
         <v>97</v>
       </c>
@@ -5770,7 +5077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:150">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>308</v>
       </c>
@@ -5807,7 +5114,6 @@
       <c r="L13" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="2" t="s">
         <v>272</v>
       </c>
@@ -5892,9 +5198,6 @@
       <c r="AO13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
       <c r="AS13" s="1" t="s">
         <v>107</v>
       </c>
@@ -5904,13 +5207,9 @@
       <c r="AU13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV13" s="1"/>
       <c r="AW13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
       <c r="BA13" s="1" t="s">
         <v>78</v>
       </c>
@@ -5983,7 +5282,6 @@
       <c r="BX13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY13" s="1"/>
       <c r="BZ13" s="1" t="s">
         <v>97</v>
       </c>
@@ -6116,7 +5414,6 @@
       <c r="DQ13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DR13" s="1"/>
       <c r="DS13" s="1" t="s">
         <v>95</v>
       </c>
@@ -6196,7 +5493,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:150">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>308</v>
       </c>
@@ -6233,7 +5530,6 @@
       <c r="L14" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M14" s="1"/>
       <c r="N14" s="2" t="s">
         <v>287</v>
       </c>
@@ -6318,9 +5614,6 @@
       <c r="AO14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
         <v>107</v>
       </c>
@@ -6330,13 +5623,9 @@
       <c r="AU14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV14" s="1"/>
       <c r="AW14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
       <c r="BA14" s="1" t="s">
         <v>78</v>
       </c>
@@ -6409,7 +5698,6 @@
       <c r="BX14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY14" s="1"/>
       <c r="BZ14" s="1" t="s">
         <v>97</v>
       </c>
@@ -6542,7 +5830,6 @@
       <c r="DQ14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DR14" s="1"/>
       <c r="DS14" s="1" t="s">
         <v>95</v>
       </c>
@@ -6622,7 +5909,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:150">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>308</v>
       </c>
@@ -6659,7 +5946,6 @@
       <c r="L15" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="2" t="s">
         <v>287</v>
       </c>
@@ -6744,9 +6030,6 @@
       <c r="AO15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
       <c r="AS15" s="1" t="s">
         <v>107</v>
       </c>
@@ -6756,12 +6039,9 @@
       <c r="AU15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV15" s="1"/>
       <c r="AW15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
       <c r="AZ15" s="1" t="s">
         <v>297</v>
       </c>
@@ -6837,7 +6117,6 @@
       <c r="BX15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY15" s="1"/>
       <c r="BZ15" s="1" t="s">
         <v>97</v>
       </c>
@@ -7052,7 +6331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:150">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>308</v>
       </c>
@@ -7089,7 +6368,6 @@
       <c r="L16" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M16" s="1"/>
       <c r="N16" s="2" t="s">
         <v>287</v>
       </c>
@@ -7174,9 +6452,6 @@
       <c r="AO16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
       <c r="AS16" s="1" t="s">
         <v>107</v>
       </c>
@@ -7186,13 +6461,9 @@
       <c r="AU16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AV16" s="1"/>
       <c r="AW16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
       <c r="BA16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7265,7 +6536,6 @@
       <c r="BX16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BY16" s="1"/>
       <c r="BZ16" s="1" t="s">
         <v>97</v>
       </c>
@@ -7480,12 +6750,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:2">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:88">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -7748,7 +7018,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:88">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
@@ -8014,7 +7284,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:88">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -8280,7 +7550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:88">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>308</v>
       </c>
@@ -8546,7 +7816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:88">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>308</v>
       </c>
@@ -8812,12 +8082,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:2">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="12" customHeight="1" spans="2:71">
+    <row r="29" spans="1:88" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -9029,7 +8299,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:71">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
@@ -9048,7 +8318,6 @@
       <c r="F30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="1"/>
       <c r="H30" s="2" t="s">
         <v>83</v>
       </c>
@@ -9079,7 +8348,6 @@
       <c r="Q30" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
         <v>444</v>
       </c>
@@ -9092,16 +8360,12 @@
       <c r="V30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
         <v>104</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
       <c r="AC30" s="1" t="s">
         <v>441</v>
       </c>
@@ -9114,8 +8378,6 @@
       <c r="AF30" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
       <c r="AI30" s="2" t="s">
         <v>448</v>
       </c>
@@ -9140,8 +8402,6 @@
       <c r="AP30" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
       <c r="AS30" s="1" t="s">
         <v>107</v>
       </c>
@@ -9157,7 +8417,6 @@
       <c r="AW30" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
         <v>95</v>
       </c>
@@ -9182,8 +8441,6 @@
       <c r="BF30" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
       <c r="BI30" s="1" t="s">
         <v>102</v>
       </c>
@@ -9199,12 +8456,9 @@
       <c r="BM30" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
       <c r="BP30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ30" s="1"/>
       <c r="BR30" s="1" t="s">
         <v>95</v>
       </c>
@@ -9212,7 +8466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:71">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>308</v>
       </c>
@@ -9231,7 +8485,6 @@
       <c r="F31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="2" t="s">
         <v>119</v>
       </c>
@@ -9262,7 +8515,6 @@
       <c r="Q31" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R31" s="1"/>
       <c r="S31" s="1" t="s">
         <v>455</v>
       </c>
@@ -9275,16 +8527,12 @@
       <c r="V31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W31" s="1"/>
       <c r="X31" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
       <c r="AC31" s="1" t="s">
         <v>454</v>
       </c>
@@ -9297,8 +8545,6 @@
       <c r="AF31" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
       <c r="AI31" s="2" t="s">
         <v>448</v>
       </c>
@@ -9323,8 +8569,6 @@
       <c r="AP31" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
       <c r="AS31" s="1" t="s">
         <v>107</v>
       </c>
@@ -9340,7 +8584,6 @@
       <c r="AW31" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
         <v>95</v>
       </c>
@@ -9365,8 +8608,6 @@
       <c r="BF31" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
       <c r="BI31" s="1" t="s">
         <v>102</v>
       </c>
@@ -9382,12 +8623,9 @@
       <c r="BM31" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
       <c r="BP31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ31" s="1"/>
       <c r="BR31" s="1" t="s">
         <v>95</v>
       </c>
@@ -9395,7 +8633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:71">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>308</v>
       </c>
@@ -9414,7 +8652,6 @@
       <c r="F32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
         <v>112</v>
       </c>
@@ -9445,7 +8682,6 @@
       <c r="Q32" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
         <v>455</v>
       </c>
@@ -9458,16 +8694,12 @@
       <c r="V32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W32" s="1"/>
       <c r="X32" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
       <c r="AC32" s="1" t="s">
         <v>458</v>
       </c>
@@ -9480,8 +8712,6 @@
       <c r="AF32" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
       <c r="AI32" s="2" t="s">
         <v>448</v>
       </c>
@@ -9506,8 +8736,6 @@
       <c r="AP32" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
       <c r="AS32" s="1" t="s">
         <v>107</v>
       </c>
@@ -9523,7 +8751,6 @@
       <c r="AW32" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
         <v>95</v>
       </c>
@@ -9548,8 +8775,6 @@
       <c r="BF32" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
       <c r="BI32" s="1" t="s">
         <v>102</v>
       </c>
@@ -9565,12 +8790,9 @@
       <c r="BM32" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
       <c r="BP32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ32" s="1"/>
       <c r="BR32" s="1" t="s">
         <v>95</v>
       </c>
@@ -9578,7 +8800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:71">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>308</v>
       </c>
@@ -9597,7 +8819,6 @@
       <c r="F33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="1"/>
       <c r="H33" s="2" t="s">
         <v>83</v>
       </c>
@@ -9628,7 +8849,6 @@
       <c r="Q33" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
         <v>444</v>
       </c>
@@ -9641,16 +8861,12 @@
       <c r="V33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W33" s="1"/>
       <c r="X33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
       <c r="AC33" s="1" t="s">
         <v>441</v>
       </c>
@@ -9663,8 +8879,6 @@
       <c r="AF33" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
       <c r="AI33" s="2" t="s">
         <v>448</v>
       </c>
@@ -9689,8 +8903,6 @@
       <c r="AP33" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
       <c r="AS33" s="1" t="s">
         <v>107</v>
       </c>
@@ -9706,7 +8918,6 @@
       <c r="AW33" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AX33" s="1"/>
       <c r="AY33" s="1" t="s">
         <v>95</v>
       </c>
@@ -9731,8 +8942,6 @@
       <c r="BF33" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
       <c r="BI33" s="1" t="s">
         <v>102</v>
       </c>
@@ -9742,16 +8951,12 @@
       <c r="BK33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BL33" s="1"/>
       <c r="BM33" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
       <c r="BP33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ33" s="1"/>
       <c r="BR33" s="1" t="s">
         <v>78</v>
       </c>
@@ -9759,7 +8964,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:71">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>308</v>
       </c>
@@ -9778,7 +8983,6 @@
       <c r="F34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="1"/>
       <c r="H34" s="2" t="s">
         <v>119</v>
       </c>
@@ -9809,7 +9013,6 @@
       <c r="Q34" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
         <v>455</v>
       </c>
@@ -9822,16 +9025,12 @@
       <c r="V34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
         <v>454</v>
       </c>
@@ -9844,8 +9043,6 @@
       <c r="AF34" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
       <c r="AI34" s="2" t="s">
         <v>448</v>
       </c>
@@ -9870,8 +9067,6 @@
       <c r="AP34" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
       <c r="AS34" s="1" t="s">
         <v>107</v>
       </c>
@@ -9887,7 +9082,6 @@
       <c r="AW34" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AX34" s="1"/>
       <c r="AY34" s="1" t="s">
         <v>95</v>
       </c>
@@ -9912,8 +9106,6 @@
       <c r="BF34" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
       <c r="BI34" s="1" t="s">
         <v>102</v>
       </c>
@@ -9923,16 +9115,12 @@
       <c r="BK34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BL34" s="1"/>
       <c r="BM34" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
       <c r="BP34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ34" s="1"/>
       <c r="BR34" s="1" t="s">
         <v>78</v>
       </c>
@@ -9940,7 +9128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:71">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>308</v>
       </c>
@@ -9959,7 +9147,6 @@
       <c r="F35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="1"/>
       <c r="H35" s="2" t="s">
         <v>112</v>
       </c>
@@ -9990,7 +9177,6 @@
       <c r="Q35" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
         <v>455</v>
       </c>
@@ -10003,16 +9189,12 @@
       <c r="V35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
         <v>458</v>
       </c>
@@ -10025,8 +9207,6 @@
       <c r="AF35" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
       <c r="AI35" s="2" t="s">
         <v>448</v>
       </c>
@@ -10051,8 +9231,6 @@
       <c r="AP35" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
       <c r="AS35" s="1" t="s">
         <v>107</v>
       </c>
@@ -10068,7 +9246,6 @@
       <c r="AW35" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
         <v>95</v>
       </c>
@@ -10093,8 +9270,6 @@
       <c r="BF35" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
       <c r="BI35" s="1" t="s">
         <v>102</v>
       </c>
@@ -10104,16 +9279,12 @@
       <c r="BK35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BL35" s="1"/>
       <c r="BM35" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN35" s="1"/>
-      <c r="BO35" s="1"/>
       <c r="BP35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ35" s="1"/>
       <c r="BR35" s="1" t="s">
         <v>78</v>
       </c>
@@ -10121,12 +9292,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:2">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:71">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -10338,7 +9509,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:71">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>308</v>
       </c>
@@ -10357,7 +9528,6 @@
       <c r="F41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="1"/>
       <c r="H41" s="2" t="s">
         <v>83</v>
       </c>
@@ -10388,7 +9558,6 @@
       <c r="Q41" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R41" s="1"/>
       <c r="S41" s="2" t="s">
         <v>444</v>
       </c>
@@ -10401,16 +9570,12 @@
       <c r="V41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
       <c r="AC41" s="1" t="s">
         <v>441</v>
       </c>
@@ -10423,8 +9588,6 @@
       <c r="AF41" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
       <c r="AI41" s="2" t="s">
         <v>448</v>
       </c>
@@ -10449,8 +9612,6 @@
       <c r="AP41" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
       <c r="AS41" s="1" t="s">
         <v>107</v>
       </c>
@@ -10466,7 +9627,6 @@
       <c r="AW41" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
         <v>95</v>
       </c>
@@ -10491,8 +9651,6 @@
       <c r="BF41" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
       <c r="BI41" s="1" t="s">
         <v>102</v>
       </c>
@@ -10508,12 +9666,9 @@
       <c r="BM41" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
       <c r="BP41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ41" s="1"/>
       <c r="BR41" s="1" t="s">
         <v>95</v>
       </c>
@@ -10521,7 +9676,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:71">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>308</v>
       </c>
@@ -10540,7 +9695,6 @@
       <c r="F42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="1"/>
       <c r="H42" s="2" t="s">
         <v>119</v>
       </c>
@@ -10571,7 +9725,6 @@
       <c r="Q42" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R42" s="1"/>
       <c r="S42" s="2" t="s">
         <v>455</v>
       </c>
@@ -10584,16 +9737,12 @@
       <c r="V42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W42" s="1"/>
       <c r="X42" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
       <c r="AC42" s="1" t="s">
         <v>454</v>
       </c>
@@ -10606,8 +9755,6 @@
       <c r="AF42" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
       <c r="AI42" s="2" t="s">
         <v>448</v>
       </c>
@@ -10632,8 +9779,6 @@
       <c r="AP42" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
       <c r="AS42" s="1" t="s">
         <v>107</v>
       </c>
@@ -10649,7 +9794,6 @@
       <c r="AW42" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
         <v>95</v>
       </c>
@@ -10674,8 +9818,6 @@
       <c r="BF42" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
       <c r="BI42" s="1" t="s">
         <v>102</v>
       </c>
@@ -10691,12 +9833,9 @@
       <c r="BM42" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN42" s="1"/>
-      <c r="BO42" s="1"/>
       <c r="BP42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ42" s="1"/>
       <c r="BR42" s="1" t="s">
         <v>95</v>
       </c>
@@ -10704,7 +9843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:71">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>308</v>
       </c>
@@ -10723,7 +9862,6 @@
       <c r="F43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="1"/>
       <c r="H43" s="2" t="s">
         <v>112</v>
       </c>
@@ -10754,7 +9892,6 @@
       <c r="Q43" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R43" s="1"/>
       <c r="S43" s="2" t="s">
         <v>455</v>
       </c>
@@ -10767,16 +9904,12 @@
       <c r="V43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
         <v>458</v>
       </c>
@@ -10789,8 +9922,6 @@
       <c r="AF43" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
       <c r="AI43" s="2" t="s">
         <v>448</v>
       </c>
@@ -10815,8 +9946,6 @@
       <c r="AP43" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
       <c r="AS43" s="1" t="s">
         <v>107</v>
       </c>
@@ -10832,7 +9961,6 @@
       <c r="AW43" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
         <v>95</v>
       </c>
@@ -10857,8 +9985,6 @@
       <c r="BF43" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
       <c r="BI43" s="1" t="s">
         <v>102</v>
       </c>
@@ -10874,12 +10000,9 @@
       <c r="BM43" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
       <c r="BP43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ43" s="1"/>
       <c r="BR43" s="1" t="s">
         <v>95</v>
       </c>
@@ -10887,95 +10010,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:83">
+    <row r="49" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-      <c r="BC49" s="1"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
-      <c r="BJ49" s="1"/>
-      <c r="BK49" s="1"/>
-      <c r="BL49" s="1"/>
-      <c r="BM49" s="1"/>
-      <c r="BN49" s="1"/>
-      <c r="BO49" s="1"/>
-      <c r="BP49" s="1"/>
-      <c r="BQ49" s="1"/>
-      <c r="BR49" s="1"/>
-      <c r="BS49" s="1"/>
-      <c r="BT49" s="1"/>
-      <c r="BU49" s="1"/>
-      <c r="BV49" s="1"/>
-      <c r="BW49" s="1"/>
-      <c r="BX49" s="1"/>
-      <c r="BY49" s="1"/>
-      <c r="BZ49" s="1"/>
-      <c r="CA49" s="1"/>
-      <c r="CB49" s="1"/>
-      <c r="CC49" s="1"/>
-      <c r="CD49" s="1"/>
       <c r="CE49" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:141">
+    <row r="50" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
@@ -11397,7 +10440,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:141">
+    <row r="51" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>308</v>
       </c>
@@ -11425,8 +10468,6 @@
       <c r="I51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
         <v>98</v>
       </c>
@@ -11544,7 +10585,6 @@
       <c r="AX51" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="AY51" s="1"/>
       <c r="AZ51" s="1" t="s">
         <v>90</v>
       </c>
@@ -11563,8 +10603,6 @@
       <c r="BE51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BF51" s="1"/>
-      <c r="BG51" s="1"/>
       <c r="BH51" s="1" t="s">
         <v>102</v>
       </c>
@@ -11580,7 +10618,6 @@
       <c r="BL51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BM51" s="1"/>
       <c r="BN51" s="1" t="s">
         <v>107</v>
       </c>
@@ -11590,7 +10627,6 @@
       <c r="BP51" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BQ51" s="1"/>
       <c r="BR51" s="1" t="s">
         <v>102</v>
       </c>
@@ -11606,7 +10642,6 @@
       <c r="BV51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BW51" s="1"/>
       <c r="BX51" s="1" t="s">
         <v>102</v>
       </c>
@@ -11637,14 +10672,12 @@
       <c r="CG51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CH51" s="1"/>
       <c r="CI51" s="1" t="s">
         <v>95</v>
       </c>
       <c r="CJ51" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="CK51" s="1"/>
       <c r="CL51" s="1" t="s">
         <v>102</v>
       </c>
@@ -11654,30 +10687,18 @@
       <c r="CN51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CO51" s="1"/>
-      <c r="CP51" s="1"/>
-      <c r="CQ51" s="1"/>
-      <c r="CR51" s="1"/>
-      <c r="CS51" s="1"/>
       <c r="CT51" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="CU51" s="1"/>
       <c r="CV51" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="CW51" s="1"/>
       <c r="CX51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CY51" s="1"/>
-      <c r="CZ51" s="1"/>
-      <c r="DA51" s="1"/>
-      <c r="DB51" s="1"/>
       <c r="DC51" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DD51" s="1"/>
       <c r="DE51" s="1" t="s">
         <v>107</v>
       </c>
@@ -11693,8 +10714,6 @@
       <c r="DI51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DJ51" s="1"/>
-      <c r="DK51" s="1"/>
       <c r="DL51" s="1" t="s">
         <v>387</v>
       </c>
@@ -11743,8 +10762,6 @@
       <c r="EA51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EB51" s="1"/>
-      <c r="EC51" s="1"/>
       <c r="ED51" s="1" t="s">
         <v>270</v>
       </c>
@@ -11767,7 +10784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:141">
+    <row r="52" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>308</v>
       </c>
@@ -11795,8 +10812,6 @@
       <c r="I52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
         <v>121</v>
       </c>
@@ -11914,7 +10929,6 @@
       <c r="AX52" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="AY52" s="1"/>
       <c r="AZ52" s="1" t="s">
         <v>90</v>
       </c>
@@ -11933,8 +10947,6 @@
       <c r="BE52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
       <c r="BH52" s="1" t="s">
         <v>102</v>
       </c>
@@ -11950,7 +10962,6 @@
       <c r="BL52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BM52" s="1"/>
       <c r="BN52" s="1" t="s">
         <v>107</v>
       </c>
@@ -11960,7 +10971,6 @@
       <c r="BP52" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BQ52" s="1"/>
       <c r="BR52" s="1" t="s">
         <v>102</v>
       </c>
@@ -11976,7 +10986,6 @@
       <c r="BV52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BW52" s="1"/>
       <c r="BX52" s="1" t="s">
         <v>102</v>
       </c>
@@ -12007,14 +11016,12 @@
       <c r="CG52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CH52" s="1"/>
       <c r="CI52" s="1" t="s">
         <v>95</v>
       </c>
       <c r="CJ52" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="CK52" s="1"/>
       <c r="CL52" s="1" t="s">
         <v>102</v>
       </c>
@@ -12024,30 +11031,18 @@
       <c r="CN52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CO52" s="1"/>
-      <c r="CP52" s="1"/>
-      <c r="CQ52" s="1"/>
-      <c r="CR52" s="1"/>
-      <c r="CS52" s="1"/>
       <c r="CT52" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="CU52" s="1"/>
       <c r="CV52" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="CW52" s="1"/>
       <c r="CX52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CY52" s="1"/>
-      <c r="CZ52" s="1"/>
-      <c r="DA52" s="1"/>
-      <c r="DB52" s="1"/>
       <c r="DC52" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DD52" s="1"/>
       <c r="DE52" s="1" t="s">
         <v>107</v>
       </c>
@@ -12063,8 +11058,6 @@
       <c r="DI52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DJ52" s="1"/>
-      <c r="DK52" s="1"/>
       <c r="DL52" s="1" t="s">
         <v>387</v>
       </c>
@@ -12113,8 +11106,6 @@
       <c r="EA52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EB52" s="1"/>
-      <c r="EC52" s="1"/>
       <c r="ED52" s="1" t="s">
         <v>270</v>
       </c>
@@ -12137,7 +11128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:141">
+    <row r="53" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>308</v>
       </c>
@@ -12165,8 +11156,6 @@
       <c r="I53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
         <v>115</v>
       </c>
@@ -12284,7 +11273,6 @@
       <c r="AX53" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="AY53" s="1"/>
       <c r="AZ53" s="1" t="s">
         <v>90</v>
       </c>
@@ -12303,8 +11291,6 @@
       <c r="BE53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
       <c r="BH53" s="1" t="s">
         <v>102</v>
       </c>
@@ -12320,7 +11306,6 @@
       <c r="BL53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BM53" s="1"/>
       <c r="BN53" s="1" t="s">
         <v>107</v>
       </c>
@@ -12330,7 +11315,6 @@
       <c r="BP53" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BQ53" s="1"/>
       <c r="BR53" s="1" t="s">
         <v>102</v>
       </c>
@@ -12346,7 +11330,6 @@
       <c r="BV53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BW53" s="1"/>
       <c r="BX53" s="1" t="s">
         <v>102</v>
       </c>
@@ -12377,14 +11360,12 @@
       <c r="CG53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CH53" s="1"/>
       <c r="CI53" s="1" t="s">
         <v>95</v>
       </c>
       <c r="CJ53" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="CK53" s="1"/>
       <c r="CL53" s="1" t="s">
         <v>102</v>
       </c>
@@ -12394,30 +11375,18 @@
       <c r="CN53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CO53" s="1"/>
-      <c r="CP53" s="1"/>
-      <c r="CQ53" s="1"/>
-      <c r="CR53" s="1"/>
-      <c r="CS53" s="1"/>
       <c r="CT53" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="CU53" s="1"/>
       <c r="CV53" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="CW53" s="1"/>
       <c r="CX53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CY53" s="1"/>
-      <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
-      <c r="DB53" s="1"/>
       <c r="DC53" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DD53" s="1"/>
       <c r="DE53" s="1" t="s">
         <v>107</v>
       </c>
@@ -12433,8 +11402,6 @@
       <c r="DI53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DJ53" s="1"/>
-      <c r="DK53" s="1"/>
       <c r="DL53" s="1" t="s">
         <v>387</v>
       </c>
@@ -12483,8 +11450,6 @@
       <c r="EA53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EB53" s="1"/>
-      <c r="EC53" s="1"/>
       <c r="ED53" s="1" t="s">
         <v>270</v>
       </c>
@@ -12508,164 +11473,163 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="10" width="16.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="18.6666666666667" customWidth="1"/>
-    <col min="12" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="17.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="10.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="24.2222222222222" customWidth="1"/>
-    <col min="17" max="17" width="7.66666666666667" customWidth="1"/>
-    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="11.8888888888889" customWidth="1"/>
-    <col min="20" max="20" width="16.4444444444444" customWidth="1"/>
-    <col min="21" max="21" width="19.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="26" width="14.1111111111111" customWidth="1"/>
-    <col min="27" max="27" width="16.4444444444444" customWidth="1"/>
+    <col min="25" max="26" width="14.109375" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="16.4444444444444" customWidth="1"/>
+    <col min="29" max="29" width="16.44140625" customWidth="1"/>
     <col min="30" max="30" width="13" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="9.66666666666667" customWidth="1"/>
-    <col min="33" max="34" width="17.5555555555556" customWidth="1"/>
-    <col min="35" max="35" width="9.66666666666667" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" customWidth="1"/>
+    <col min="33" max="34" width="17.5546875" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="14.1111111111111" customWidth="1"/>
-    <col min="38" max="38" width="18.6666666666667" customWidth="1"/>
-    <col min="39" max="39" width="11.8888888888889" customWidth="1"/>
-    <col min="40" max="40" width="16.4444444444444" customWidth="1"/>
-    <col min="41" max="41" width="10.7777777777778" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" customWidth="1"/>
+    <col min="38" max="38" width="18.6640625" customWidth="1"/>
+    <col min="39" max="39" width="11.88671875" customWidth="1"/>
+    <col min="40" max="40" width="16.44140625" customWidth="1"/>
+    <col min="41" max="41" width="10.77734375" customWidth="1"/>
     <col min="42" max="42" width="13" customWidth="1"/>
     <col min="43" max="43" width="22" customWidth="1"/>
-    <col min="44" max="44" width="8.66666666666667" customWidth="1"/>
-    <col min="45" max="45" width="23.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="11.8888888888889" customWidth="1"/>
-    <col min="48" max="48" width="5.66666666666667" customWidth="1"/>
-    <col min="49" max="49" width="10.7777777777778" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="17.5555555555556" customWidth="1"/>
-    <col min="52" max="52" width="11.8888888888889" customWidth="1"/>
-    <col min="53" max="53" width="16.4444444444444" customWidth="1"/>
-    <col min="54" max="54" width="19.7777777777778" customWidth="1"/>
-    <col min="55" max="55" width="17.5555555555556" customWidth="1"/>
-    <col min="56" max="56" width="16.4444444444444" customWidth="1"/>
-    <col min="57" max="57" width="15.2222222222222" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="20.8888888888889" customWidth="1"/>
-    <col min="60" max="60" width="15.2222222222222" customWidth="1"/>
-    <col min="61" max="61" width="20.8888888888889" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="16.4444444444444" customWidth="1"/>
-    <col min="65" max="66" width="15.2222222222222" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="15.2222222222222" customWidth="1"/>
+    <col min="44" max="44" width="8.6640625" customWidth="1"/>
+    <col min="45" max="45" width="23.109375" customWidth="1"/>
+    <col min="46" max="47" width="11.88671875" customWidth="1"/>
+    <col min="48" max="48" width="5.6640625" customWidth="1"/>
+    <col min="49" max="49" width="10.77734375" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="51" max="51" width="17.5546875" customWidth="1"/>
+    <col min="52" max="52" width="11.88671875" customWidth="1"/>
+    <col min="53" max="53" width="16.44140625" customWidth="1"/>
+    <col min="54" max="54" width="19.77734375" customWidth="1"/>
+    <col min="55" max="55" width="17.5546875" customWidth="1"/>
+    <col min="56" max="56" width="16.44140625" customWidth="1"/>
+    <col min="57" max="57" width="15.21875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="20.88671875" customWidth="1"/>
+    <col min="60" max="60" width="15.21875" customWidth="1"/>
+    <col min="61" max="61" width="20.88671875" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" customWidth="1"/>
+    <col min="63" max="63" width="17.5546875" customWidth="1"/>
+    <col min="64" max="64" width="16.44140625" customWidth="1"/>
+    <col min="65" max="66" width="15.21875" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="68" max="68" width="15.21875" customWidth="1"/>
     <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="17.5555555555556" customWidth="1"/>
-    <col min="71" max="71" width="9.66666666666667" customWidth="1"/>
-    <col min="72" max="72" width="10.7777777777778" customWidth="1"/>
+    <col min="70" max="70" width="17.5546875" customWidth="1"/>
+    <col min="71" max="71" width="9.6640625" customWidth="1"/>
+    <col min="72" max="72" width="10.77734375" customWidth="1"/>
     <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="10.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="14.1111111111111" customWidth="1"/>
-    <col min="77" max="77" width="18.6666666666667" customWidth="1"/>
+    <col min="74" max="74" width="10.77734375" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="14.109375" customWidth="1"/>
+    <col min="77" max="77" width="18.6640625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="17.5555555555556" customWidth="1"/>
-    <col min="80" max="80" width="9.66666666666667" customWidth="1"/>
-    <col min="81" max="81" width="19.7777777777778" customWidth="1"/>
-    <col min="82" max="82" width="15.2222222222222" customWidth="1"/>
-    <col min="83" max="83" width="24.2222222222222" customWidth="1"/>
-    <col min="84" max="85" width="19.7777777777778" customWidth="1"/>
-    <col min="86" max="86" width="18.6666666666667" customWidth="1"/>
-    <col min="87" max="87" width="26.5555555555556" customWidth="1"/>
+    <col min="79" max="79" width="17.5546875" customWidth="1"/>
+    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="81" max="81" width="19.77734375" customWidth="1"/>
+    <col min="82" max="82" width="15.21875" customWidth="1"/>
+    <col min="83" max="83" width="24.21875" customWidth="1"/>
+    <col min="84" max="85" width="19.77734375" customWidth="1"/>
+    <col min="86" max="86" width="18.6640625" customWidth="1"/>
+    <col min="87" max="87" width="26.5546875" customWidth="1"/>
     <col min="88" max="88" width="22" customWidth="1"/>
-    <col min="89" max="89" width="25.4444444444444" customWidth="1"/>
+    <col min="89" max="89" width="25.44140625" customWidth="1"/>
     <col min="90" max="90" width="22" customWidth="1"/>
     <col min="91" max="91" width="13" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="14.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="19.7777777777778" customWidth="1"/>
-    <col min="96" max="96" width="16.4444444444444" customWidth="1"/>
-    <col min="97" max="97" width="14.1111111111111" customWidth="1"/>
-    <col min="98" max="98" width="8.66666666666667" customWidth="1"/>
-    <col min="99" max="99" width="16.4444444444444" customWidth="1"/>
-    <col min="100" max="100" width="11.8888888888889" customWidth="1"/>
-    <col min="101" max="101" width="16.4444444444444" customWidth="1"/>
-    <col min="102" max="103" width="19.7777777777778" customWidth="1"/>
-    <col min="104" max="104" width="18.6666666666667" customWidth="1"/>
-    <col min="105" max="105" width="16.4444444444444" customWidth="1"/>
-    <col min="106" max="106" width="8.66666666666667" customWidth="1"/>
-    <col min="107" max="107" width="23.1111111111111" customWidth="1"/>
-    <col min="108" max="108" width="20.8888888888889" customWidth="1"/>
-    <col min="109" max="109" width="19.7777777777778" customWidth="1"/>
-    <col min="110" max="110" width="26.5555555555556" customWidth="1"/>
-    <col min="111" max="111" width="18.6666666666667" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="14.109375" customWidth="1"/>
+    <col min="95" max="95" width="19.77734375" customWidth="1"/>
+    <col min="96" max="96" width="16.44140625" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" customWidth="1"/>
+    <col min="98" max="98" width="8.6640625" customWidth="1"/>
+    <col min="99" max="99" width="16.44140625" customWidth="1"/>
+    <col min="100" max="100" width="11.88671875" customWidth="1"/>
+    <col min="101" max="101" width="16.44140625" customWidth="1"/>
+    <col min="102" max="103" width="19.77734375" customWidth="1"/>
+    <col min="104" max="104" width="18.6640625" customWidth="1"/>
+    <col min="105" max="105" width="16.44140625" customWidth="1"/>
+    <col min="106" max="106" width="8.6640625" customWidth="1"/>
+    <col min="107" max="107" width="23.109375" customWidth="1"/>
+    <col min="108" max="108" width="20.88671875" customWidth="1"/>
+    <col min="109" max="109" width="19.77734375" customWidth="1"/>
+    <col min="110" max="110" width="26.5546875" customWidth="1"/>
+    <col min="111" max="111" width="18.6640625" customWidth="1"/>
     <col min="112" max="112" width="22" customWidth="1"/>
-    <col min="113" max="113" width="24.2222222222222" customWidth="1"/>
-    <col min="114" max="114" width="11.8888888888889" customWidth="1"/>
-    <col min="115" max="116" width="18.6666666666667" customWidth="1"/>
-    <col min="117" max="117" width="14.1111111111111" customWidth="1"/>
-    <col min="118" max="118" width="19.7777777777778" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="14.1111111111111" customWidth="1"/>
-    <col min="121" max="121" width="19.7777777777778" customWidth="1"/>
+    <col min="113" max="113" width="24.21875" customWidth="1"/>
+    <col min="114" max="114" width="11.88671875" customWidth="1"/>
+    <col min="115" max="116" width="18.6640625" customWidth="1"/>
+    <col min="117" max="117" width="14.109375" customWidth="1"/>
+    <col min="118" max="118" width="19.77734375" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="14.109375" customWidth="1"/>
+    <col min="121" max="121" width="19.77734375" customWidth="1"/>
     <col min="122" max="122" width="13" customWidth="1"/>
-    <col min="123" max="123" width="17.5555555555556" customWidth="1"/>
-    <col min="124" max="124" width="15.2222222222222" customWidth="1"/>
-    <col min="125" max="125" width="19.7777777777778" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="24.2222222222222" customWidth="1"/>
-    <col min="129" max="129" width="26.5555555555556" customWidth="1"/>
-    <col min="130" max="130" width="11.8888888888889" customWidth="1"/>
-    <col min="131" max="131" width="18.6666666666667" customWidth="1"/>
-    <col min="132" max="132" width="15.2222222222222" customWidth="1"/>
-    <col min="133" max="133" width="14.1111111111111" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="18.6666666666667" customWidth="1"/>
-    <col min="136" max="136" width="15.2222222222222" customWidth="1"/>
-    <col min="137" max="137" width="20.8888888888889" customWidth="1"/>
-    <col min="138" max="138" width="24.2222222222222" customWidth="1"/>
-    <col min="139" max="139" width="19.7777777777778" customWidth="1"/>
-    <col min="140" max="140" width="15.2222222222222" customWidth="1"/>
+    <col min="123" max="123" width="17.5546875" customWidth="1"/>
+    <col min="124" max="124" width="15.21875" customWidth="1"/>
+    <col min="125" max="125" width="19.77734375" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="24.21875" customWidth="1"/>
+    <col min="129" max="129" width="26.5546875" customWidth="1"/>
+    <col min="130" max="130" width="11.88671875" customWidth="1"/>
+    <col min="131" max="131" width="18.6640625" customWidth="1"/>
+    <col min="132" max="132" width="15.21875" customWidth="1"/>
+    <col min="133" max="133" width="14.109375" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="18.6640625" customWidth="1"/>
+    <col min="136" max="136" width="15.21875" customWidth="1"/>
+    <col min="137" max="137" width="20.88671875" customWidth="1"/>
+    <col min="138" max="138" width="24.21875" customWidth="1"/>
+    <col min="139" max="139" width="19.77734375" customWidth="1"/>
+    <col min="140" max="140" width="15.21875" customWidth="1"/>
     <col min="141" max="141" width="13" customWidth="1"/>
-    <col min="142" max="142" width="16.4444444444444" customWidth="1"/>
-    <col min="143" max="143" width="19.7777777777778" customWidth="1"/>
-    <col min="144" max="144" width="23.1111111111111" customWidth="1"/>
-    <col min="145" max="145" width="27.6666666666667" customWidth="1"/>
-    <col min="146" max="146" width="18.6666666666667" customWidth="1"/>
-    <col min="147" max="147" width="15.2222222222222" customWidth="1"/>
+    <col min="142" max="142" width="16.44140625" customWidth="1"/>
+    <col min="143" max="143" width="19.77734375" customWidth="1"/>
+    <col min="144" max="144" width="23.109375" customWidth="1"/>
+    <col min="145" max="145" width="27.6640625" customWidth="1"/>
+    <col min="146" max="146" width="18.6640625" customWidth="1"/>
+    <col min="147" max="147" width="15.21875" customWidth="1"/>
     <col min="148" max="148" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:148">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -13111,7 +12075,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:148">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
@@ -13521,7 +12485,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:148">
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -13931,7 +12895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:148">
+    <row r="4" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -14347,7 +13311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:148">
+    <row r="5" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -14761,113 +13725,111 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="20.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
-    <col min="16" max="17" width="15.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="17.5555555555556" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="11.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="8.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="17.5555555555556" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
-    <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="16.4444444444444" customWidth="1"/>
-    <col min="34" max="34" width="15.2222222222222" customWidth="1"/>
-    <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="20.8888888888889" customWidth="1"/>
-    <col min="38" max="38" width="24.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="23.1111111111111" customWidth="1"/>
-    <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
-    <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="15.2222222222222" customWidth="1"/>
-    <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="16.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="23.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="19.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="23.1111111111111" customWidth="1"/>
-    <col min="55" max="55" width="15.2222222222222" customWidth="1"/>
-    <col min="56" max="56" width="18.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="17.5555555555556" customWidth="1"/>
-    <col min="58" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="18.6666666666667" customWidth="1"/>
-    <col min="65" max="65" width="25.4444444444444" customWidth="1"/>
-    <col min="66" max="66" width="27.6666666666667" customWidth="1"/>
-    <col min="67" max="67" width="20.8888888888889" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="23.1111111111111" customWidth="1"/>
-    <col min="70" max="70" width="9.66666666666667" customWidth="1"/>
-    <col min="71" max="71" width="23.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="24.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="19.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
-    <col min="76" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="15.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="16.4444444444444" customWidth="1"/>
-    <col min="79" max="79" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="19.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="26.5555555555556" customWidth="1"/>
-    <col min="82" max="82" width="14.1111111111111" customWidth="1"/>
-    <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="22" customWidth="1"/>
-    <col min="85" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="16" width="15.21875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="28" width="13" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" customWidth="1"/>
+    <col min="37" max="37" width="24.21875" customWidth="1"/>
+    <col min="38" max="38" width="23.109375" customWidth="1"/>
+    <col min="39" max="40" width="13" customWidth="1"/>
+    <col min="41" max="41" width="14.109375" customWidth="1"/>
+    <col min="42" max="42" width="13" customWidth="1"/>
+    <col min="43" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="46" width="15.21875" customWidth="1"/>
+    <col min="47" max="48" width="13" customWidth="1"/>
+    <col min="49" max="49" width="14.109375" customWidth="1"/>
+    <col min="50" max="50" width="16.44140625" customWidth="1"/>
+    <col min="51" max="51" width="23.109375" customWidth="1"/>
+    <col min="52" max="52" width="19.77734375" customWidth="1"/>
+    <col min="53" max="53" width="23.109375" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="18.6640625" customWidth="1"/>
+    <col min="56" max="56" width="17.5546875" customWidth="1"/>
+    <col min="57" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="60" width="17.5546875" customWidth="1"/>
+    <col min="61" max="61" width="16.44140625" customWidth="1"/>
+    <col min="62" max="62" width="17.5546875" customWidth="1"/>
+    <col min="63" max="63" width="18.6640625" customWidth="1"/>
+    <col min="64" max="64" width="25.44140625" customWidth="1"/>
+    <col min="65" max="65" width="27.6640625" customWidth="1"/>
+    <col min="66" max="66" width="20.88671875" customWidth="1"/>
+    <col min="67" max="67" width="16.44140625" customWidth="1"/>
+    <col min="68" max="68" width="23.109375" customWidth="1"/>
+    <col min="69" max="69" width="9.6640625" customWidth="1"/>
+    <col min="70" max="70" width="23.109375" customWidth="1"/>
+    <col min="71" max="71" width="18.6640625" customWidth="1"/>
+    <col min="72" max="72" width="24.21875" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="74" max="74" width="14.109375" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="15.21875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
+    <col min="78" max="78" width="18.6640625" customWidth="1"/>
+    <col min="79" max="79" width="19.77734375" customWidth="1"/>
+    <col min="80" max="80" width="26.5546875" customWidth="1"/>
+    <col min="81" max="81" width="14.109375" customWidth="1"/>
+    <col min="82" max="82" width="13" customWidth="1"/>
+    <col min="83" max="83" width="22" customWidth="1"/>
+    <col min="84" max="84" width="17.5546875" customWidth="1"/>
+    <col min="85" max="85" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:86">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -14885,22 +13847,22 @@
       <c r="I1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>312</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>313</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>315</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -15117,17 +14079,17 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:86">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -15145,22 +14107,22 @@
       <c r="I2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>383</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>385</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -15197,7 +14159,7 @@
         <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>90</v>
+        <v>572</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>95</v>
@@ -15320,7 +14282,7 @@
         <v>383</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>90</v>
+        <v>571</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>107</v>
@@ -15377,17 +14339,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:86">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -15405,23 +14367,23 @@
       <c r="I3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>383</v>
+      <c r="J3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>385</v>
+        <v>573</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>95</v>
@@ -15457,7 +14419,7 @@
         <v>90</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>90</v>
+        <v>572</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>95</v>
@@ -15577,10 +14539,10 @@
         <v>95</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>383</v>
+        <v>574</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>90</v>
+        <v>575</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>107</v>
@@ -15638,3603 +14600,1598 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BQ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="15" width="10.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.66666666666667" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="11.8888888888889" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="8.66666666666667" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="51" width="14.1111111111111" customWidth="1"/>
-    <col min="52" max="52" width="9.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="10.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
-    <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.7777777777778" customWidth="1"/>
-    <col min="67" max="68" width="11.8888888888889" customWidth="1"/>
-    <col min="69" max="69" width="10.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:69">
-      <c r="A1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:69">
-      <c r="A3" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:69">
-      <c r="A4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:69">
-      <c r="A5" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:69">
-      <c r="A6" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:69">
-      <c r="A7" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BQ4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="15" width="10.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.66666666666667" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="11.8888888888889" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="8.66666666666667" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="51" width="14.1111111111111" customWidth="1"/>
-    <col min="52" max="52" width="9.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="10.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
-    <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.7777777777778" customWidth="1"/>
-    <col min="67" max="68" width="11.8888888888889" customWidth="1"/>
-    <col min="69" max="69" width="10.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:69">
-      <c r="A1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:69">
-      <c r="A3" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:69">
-      <c r="A4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="16.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="14.1111111111111" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.5546875" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="33.2222222222222" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="33.21875" customWidth="1"/>
+    <col min="61" max="61" width="17.5546875" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="82" width="9.66666666666667" customWidth="1"/>
-    <col min="83" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="16.4444444444444" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="83" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.5546875" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="16.44140625" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="9.66666666666667" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.5546875" customWidth="1"/>
+    <col min="114" max="114" width="9.6640625" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.5546875" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.5546875" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
-    <col min="136" max="136" width="14.1111111111111" customWidth="1"/>
-    <col min="137" max="137" width="17.5555555555556" customWidth="1"/>
-    <col min="138" max="138" width="14.1111111111111" customWidth="1"/>
-    <col min="139" max="139" width="10.7777777777778" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="137" max="137" width="17.5546875" customWidth="1"/>
+    <col min="138" max="138" width="14.109375" customWidth="1"/>
+    <col min="139" max="139" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:139">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:139" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DF1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DG1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DH1" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DI1" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DK1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DL1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DM1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DN1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DO1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DP1" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DR1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DS1" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DT1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DU1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DV1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DW1" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DX1" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DY1" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EA1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EB1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="EC1" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="ED1" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EE1" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EF1" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EG1" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EH1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EI1" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:139">
-      <c r="A2" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:139" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="X2" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP2" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AY2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR2" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="CT2" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="DF2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ2" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="DK2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DL2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DM2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN2" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DO2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DP2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DQ2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DR2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DS2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DT2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DU2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DV2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DW2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DX2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EB2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="EC2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="ED2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EE2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EF2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EG2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EI2" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="T3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BG3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH3" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BI3" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BJ3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN3" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BP3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BQ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BQ3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BV3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BW3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BX3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BY3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC2" s="2" t="s">
+      <c r="BZ3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CC3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CD3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH3" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="CJ3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK3" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CL3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR3" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="CT3" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="CV3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="DA3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="DC3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE3" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="CE2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="DF3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="CK2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR2" s="1" t="s">
+      <c r="DJ3" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="DK3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DL3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DM3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DO3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DP3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DQ3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DR3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DS3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DT3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DU3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DV3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DW3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DX3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EB3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="EC3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="ED3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EE3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EF3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EG3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EI3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:139" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="BP4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ4" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="CA4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH4" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="CJ4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK4" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CL4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CR4" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CT4" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="CV2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DA2" s="1" t="s">
+      <c r="CV4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="DA4" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="DC2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DC4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE4" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DF4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="DJ2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DJ4" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="DK4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DL4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DM4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DN4" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="DO2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EB2" s="1" t="s">
+      <c r="DO4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DP4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DQ4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DR4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DS4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DT4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DU4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DV4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DW4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DX4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EB4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="EC2" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:139">
-      <c r="A3" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN3" s="1" t="s">
+      <c r="EC4" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="BP3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EB3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:139">
-      <c r="A4" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EB4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EI4" s="1" t="s">
+      <c r="ED4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EE4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="EF4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EG4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EI4" s="5" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/深A/GDR数据/交收失败/测试结果.xlsx
+++ b/用例数据/深A/GDR数据/交收失败/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\GDR数据\交收失败\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9D40F-2840-4311-934B-D9EC3C410818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027A13C-B04D-4B9C-A0A1-C505753D53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="272">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -835,6 +835,10 @@
   </si>
   <si>
     <t>600.0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.60000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +915,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1251,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+    <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BP5" sqref="BP5"/>
     </sheetView>
   </sheetViews>
@@ -1872,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D787566-5792-4524-93AA-ED417E29AD53}">
   <dimension ref="A1:EI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2364,8 +2371,8 @@
       <c r="V2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>128</v>
+      <c r="W2" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>252</v>
@@ -2705,8 +2712,8 @@
       <c r="V3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>128</v>
+      <c r="W3" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>252</v>
@@ -3046,8 +3053,8 @@
       <c r="V4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>128</v>
+      <c r="W4" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>252</v>
